--- a/test cases/messenger/case 10/receiver_ipv6.xlsx
+++ b/test cases/messenger/case 10/receiver_ipv6.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\WebRTC_Testbench\test cases\Messenger\case 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{78BE2805-DDD3-491B-84B4-5CDC4A43D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC55739-C8A4-4B37-BF98-DAF2057FD2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Text Document" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New Text Document'!$A$1:$Q$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New Text Document'!$A$1:$T$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
   <si>
     <t>Address A</t>
   </si>
@@ -182,12 +182,127 @@
   </si>
   <si>
     <t>2620:149:a41:100::b</t>
+  </si>
+  <si>
+    <t>2601:19b:80:c980:1486:4e93:69f:b88</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 IP addresses.</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 2601:19b:80:c980:1486:4e93:69f:b88</t>
+  </si>
+  <si>
+    <t>Not found: fe80::c4f3:54ff:feca:9697</t>
+  </si>
+  <si>
+    <t>Not found: fe80::deeb:69ff:fe0a:884d</t>
+  </si>
+  <si>
+    <t>Not found: fe80::1553:a368:5d3e:e056</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:9:face:b00c:0:3</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:e:face:b00c:0:2</t>
+  </si>
+  <si>
+    <t>Not found: fe80::cb9:ba1a:bea0:e5c9</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 2601:19b:80:c980:956f:39c4:4577:2e51</t>
+  </si>
+  <si>
+    <t>Akamai International B.V.: 2600:1401:c000:1a2::2a1</t>
+  </si>
+  <si>
+    <t>Not found: fe80::c01:7d73:f224:7820</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 2601:19b:80:c980:2533:49af:4635:af35</t>
+  </si>
+  <si>
+    <t>Not found: fe80::86d:ec8e:8a07:c147</t>
+  </si>
+  <si>
+    <t>GOOGLE: 2607:f8b0:4004:c08::6d</t>
+  </si>
+  <si>
+    <t>Not found: fe80::c4f3:54ff:feca:9668</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1</t>
+  </si>
+  <si>
+    <t>AKAMAI-AS: 2a02:26f7:78:0:ace0:4b05::</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 2620:149:a41:100::5</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 2620:149:a41:106::a</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:12:face:b00c:0:8e</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:d:face:b00c:0:6206</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f172:86:face:b00c:0:38d9</t>
+  </si>
+  <si>
+    <t>GOOGLE: 2607:f8b0:4004:c1b::6c</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f07e:17:face:b00c:0:24d9</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f272:d0:face:b00c:0:553e</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f272:ce:face:b00c:0:74fd</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f212:1c6:face:b00c:0:74fd</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 2a03:2880:f212:ca:face:b00c:0:74fd</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 2620:149:a41:107::9</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ff77:2e51</t>
+  </si>
+  <si>
+    <t>Akamai International B.V.: 2600:1401:c000::1727:2f08</t>
+  </si>
+  <si>
+    <t>Not found: ff02::fb</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ffa0:e5c9</t>
+  </si>
+  <si>
+    <t>Not found: ff02::1:ff9f:b88</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 2001:558:feed::1</t>
+  </si>
+  <si>
+    <t>GOOGLE: 2607:f8b0:4006:80c::200e</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 2620:149:a41:100::b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,11 +901,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,13 +1265,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C21"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1279,7 @@
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,10 +1331,16 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1261,8 +1390,14 @@
       <c r="Q2">
         <v>31501</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1314,8 +1449,14 @@
       <c r="Q3">
         <v>622</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1367,8 +1508,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1420,114 +1567,132 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="S5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>630</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>243</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>387</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>1.007587</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>34.252944999999997</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>56</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="S6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>220</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>110714</v>
       </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="G7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>83</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>30479</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>137</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>80235</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>2.0079050000000001</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>78.671244000000002</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <v>3099</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>8159</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1579,8 +1744,14 @@
       <c r="Q8">
         <v>3352</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1632,8 +1803,14 @@
       <c r="Q9">
         <v>23760</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>55</v>
+      </c>
+      <c r="T9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1685,8 +1862,14 @@
       <c r="Q10">
         <v>22653</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,8 +1921,14 @@
       <c r="Q11" s="1">
         <v>4394</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,8 +1980,14 @@
       <c r="Q12" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1844,8 +2039,14 @@
       <c r="Q13" s="1">
         <v>1231356</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1897,8 +2098,14 @@
       <c r="Q14">
         <v>25510</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1950,8 +2157,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2003,8 +2216,14 @@
       <c r="Q16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2050,8 +2269,14 @@
       <c r="O17" s="1">
         <v>9.4999999999956198E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2103,8 +2328,14 @@
       <c r="Q18" s="1">
         <v>43850</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2156,8 +2387,14 @@
       <c r="Q19" s="1">
         <v>233072</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2209,8 +2446,14 @@
       <c r="Q20" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2262,8 +2505,14 @@
       <c r="Q21" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2315,8 +2564,14 @@
       <c r="Q22">
         <v>125383</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>55</v>
+      </c>
+      <c r="T22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2362,8 +2617,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>55</v>
+      </c>
+      <c r="T23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2415,8 +2676,14 @@
       <c r="Q24">
         <v>341</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>62</v>
+      </c>
+      <c r="T24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2462,8 +2729,14 @@
       <c r="O25">
         <v>4.7360000000011802E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2509,8 +2782,14 @@
       <c r="O26">
         <v>5.8699999999589603E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>63</v>
+      </c>
+      <c r="T26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2562,8 +2841,14 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2609,8 +2894,14 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>64</v>
+      </c>
+      <c r="T28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2662,8 +2953,14 @@
       <c r="Q29">
         <v>10888</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -2709,8 +3006,14 @@
       <c r="O30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2762,8 +3065,14 @@
       <c r="Q31">
         <v>343</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>55</v>
+      </c>
+      <c r="T31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2809,8 +3118,14 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2856,8 +3171,14 @@
       <c r="O33">
         <v>3.1700000000967001E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2909,8 +3230,14 @@
       <c r="Q34">
         <v>640892</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>55</v>
+      </c>
+      <c r="T34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2956,23 +3283,17 @@
       <c r="O35">
         <v>4.4400000000024403E-3</v>
       </c>
+      <c r="S35" t="s">
+        <v>55</v>
+      </c>
+      <c r="T35" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q35">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="2a03:2880:f07e:12:face:b00c:0:8e"/>
-        <filter val="2a03:2880:f07e:17:face:b00c:0:24d9"/>
-        <filter val="2a03:2880:f07e:d:face:b00c:0:6206"/>
-        <filter val="2a03:2880:f172:86:face:b00c:0:38d9"/>
-        <filter val="2a03:2880:f212:1c6:face:b00c:0:74fd"/>
-        <filter val="2a03:2880:f212:ca:face:b00c:0:74fd"/>
-        <filter val="2a03:2880:f272:ce:face:b00c:0:74fd"/>
-        <filter val="2a03:2880:f272:d0:face:b00c:0:553e"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>